--- a/artfynd/A 39826-2023.xlsx
+++ b/artfynd/A 39826-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104156781</v>
+        <v>104156796</v>
       </c>
       <c r="B2" t="n">
         <v>95519</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>759124.2417443465</v>
+        <v>759013.6008122006</v>
       </c>
       <c r="R2" t="n">
-        <v>7141883.125216979</v>
+        <v>7142019.812192282</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -805,10 +805,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104156796</v>
+        <v>104156798</v>
       </c>
       <c r="B3" t="n">
-        <v>95519</v>
+        <v>96251</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -821,31 +821,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221945</v>
+        <v>219790</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -854,10 +854,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>759013.6008122006</v>
+        <v>758964.3916521255</v>
       </c>
       <c r="R3" t="n">
-        <v>7142019.812192282</v>
+        <v>7142033.962035394</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104156798</v>
+        <v>104156800</v>
       </c>
       <c r="B4" t="n">
         <v>96251</v>
@@ -965,7 +965,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>758964.3916521255</v>
+        <v>758971.3933977913</v>
       </c>
       <c r="R4" t="n">
-        <v>7142033.962035394</v>
+        <v>7142038.913085825</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104156800</v>
+        <v>104156781</v>
       </c>
       <c r="B5" t="n">
-        <v>96251</v>
+        <v>95519</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1071,31 +1071,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>219790</v>
+        <v>221945</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1104,10 +1104,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>758971.3933977913</v>
+        <v>759124.2417443465</v>
       </c>
       <c r="R5" t="n">
-        <v>7142038.913085825</v>
+        <v>7141883.125216979</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>

--- a/artfynd/A 39826-2023.xlsx
+++ b/artfynd/A 39826-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104156796</v>
+        <v>104156781</v>
       </c>
       <c r="B2" t="n">
         <v>95519</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>759013.6008122006</v>
+        <v>759124.2417443465</v>
       </c>
       <c r="R2" t="n">
-        <v>7142019.812192282</v>
+        <v>7141883.125216979</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -805,10 +805,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104156798</v>
+        <v>104156796</v>
       </c>
       <c r="B3" t="n">
-        <v>96251</v>
+        <v>95519</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -821,31 +821,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>219790</v>
+        <v>221945</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -854,10 +854,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>758964.3916521255</v>
+        <v>759013.6008122006</v>
       </c>
       <c r="R3" t="n">
-        <v>7142033.962035394</v>
+        <v>7142019.812192282</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104156800</v>
+        <v>104156798</v>
       </c>
       <c r="B4" t="n">
         <v>96251</v>
@@ -965,7 +965,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>758971.3933977913</v>
+        <v>758964.3916521255</v>
       </c>
       <c r="R4" t="n">
-        <v>7142038.913085825</v>
+        <v>7142033.962035394</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104156781</v>
+        <v>104156800</v>
       </c>
       <c r="B5" t="n">
-        <v>95519</v>
+        <v>96251</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1071,31 +1071,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221945</v>
+        <v>219790</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1104,10 +1104,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>759124.2417443465</v>
+        <v>758971.3933977913</v>
       </c>
       <c r="R5" t="n">
-        <v>7141883.125216979</v>
+        <v>7142038.913085825</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
